--- a/selected_sec_list.xlsx
+++ b/selected_sec_list.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="etf" sheetId="1" r:id="rId1"/>
     <sheet name="company" sheetId="2" r:id="rId2"/>
+    <sheet name="nasdaq200" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="252">
   <si>
     <t>sec_code</t>
   </si>
@@ -174,6 +175,603 @@
   </si>
   <si>
     <t>GS</t>
+  </si>
+  <si>
+    <t>INPX</t>
+  </si>
+  <si>
+    <t>FCEL</t>
+  </si>
+  <si>
+    <t>PTI</t>
+  </si>
+  <si>
+    <t>NLNK</t>
+  </si>
+  <si>
+    <t>SPPI</t>
+  </si>
+  <si>
+    <t>ROKU</t>
+  </si>
+  <si>
+    <t>CZR</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>YTEN</t>
+  </si>
+  <si>
+    <t>HMNY</t>
+  </si>
+  <si>
+    <t>ACOR</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>ONTX</t>
+  </si>
+  <si>
+    <t>CORV</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>HSDT</t>
+  </si>
+  <si>
+    <t>OAS</t>
+  </si>
+  <si>
+    <t>ACST</t>
+  </si>
+  <si>
+    <t>ZNGA</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>SAVA</t>
+  </si>
+  <si>
+    <t>PTON</t>
+  </si>
+  <si>
+    <t>ODP</t>
+  </si>
+  <si>
+    <t>MBOT</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>VBIV</t>
+  </si>
+  <si>
+    <t>GRPN</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>CRON</t>
+  </si>
+  <si>
+    <t>HBAN</t>
+  </si>
+  <si>
+    <t>GPRO</t>
+  </si>
+  <si>
+    <t>AMRN</t>
+  </si>
+  <si>
+    <t>IMMU</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
+    <t>ASRT</t>
+  </si>
+  <si>
+    <t>ADXS</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>QRTEA</t>
+  </si>
+  <si>
+    <t>ENDP</t>
+  </si>
+  <si>
+    <t>MYL</t>
+  </si>
+  <si>
+    <t>ITCI</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>IMGN</t>
+  </si>
+  <si>
+    <t>OCGN</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>CLSD</t>
+  </si>
+  <si>
+    <t>BBBY</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>GPOR</t>
+  </si>
+  <si>
+    <t>SBPH</t>
+  </si>
+  <si>
+    <t>ENPH</t>
+  </si>
+  <si>
+    <t>OPK</t>
+  </si>
+  <si>
+    <t>SLNO</t>
+  </si>
+  <si>
+    <t>FOXA</t>
+  </si>
+  <si>
+    <t>LQDA</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>ONCY</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>VIAC</t>
+  </si>
+  <si>
+    <t>BIOC</t>
+  </si>
+  <si>
+    <t>SESN</t>
+  </si>
+  <si>
+    <t>CLVS</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>PAAS</t>
+  </si>
+  <si>
+    <t>SDC</t>
+  </si>
+  <si>
+    <t>SPWR</t>
+  </si>
+  <si>
+    <t>ACHV</t>
+  </si>
+  <si>
+    <t>FTR</t>
+  </si>
+  <si>
+    <t>MNKD</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>PAVM</t>
+  </si>
+  <si>
+    <t>CTXR</t>
+  </si>
+  <si>
+    <t>UPWK</t>
+  </si>
+  <si>
+    <t>TXMD</t>
+  </si>
+  <si>
+    <t>AMAT</t>
+  </si>
+  <si>
+    <t>BYND</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>NIHD</t>
+  </si>
+  <si>
+    <t>KMPH</t>
+  </si>
+  <si>
+    <t>AGNC</t>
+  </si>
+  <si>
+    <t>SRNE</t>
+  </si>
+  <si>
+    <t>NLOK</t>
+  </si>
+  <si>
+    <t>AUPH</t>
+  </si>
+  <si>
+    <t>GGAL</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>DRRX</t>
+  </si>
+  <si>
+    <t>BDSI</t>
+  </si>
+  <si>
+    <t>MRNS</t>
+  </si>
+  <si>
+    <t>LBTYK</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>SGBX</t>
+  </si>
+  <si>
+    <t>BLCM</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>XOG</t>
+  </si>
+  <si>
+    <t>TRIL</t>
+  </si>
+  <si>
+    <t>AKRX</t>
+  </si>
+  <si>
+    <t>PSEC</t>
+  </si>
+  <si>
+    <t>VSTM</t>
+  </si>
+  <si>
+    <t>GHSI</t>
+  </si>
+  <si>
+    <t>TRIP</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>CPRX</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>ZN</t>
+  </si>
+  <si>
+    <t>AGRX</t>
+  </si>
+  <si>
+    <t>ZFGN</t>
+  </si>
+  <si>
+    <t>SNSS</t>
+  </si>
+  <si>
+    <t>SFIX</t>
+  </si>
+  <si>
+    <t>ARQL</t>
+  </si>
+  <si>
+    <t>QTT</t>
+  </si>
+  <si>
+    <t>ADRO</t>
+  </si>
+  <si>
+    <t>INFN</t>
+  </si>
+  <si>
+    <t>FITB</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>VEON</t>
+  </si>
+  <si>
+    <t>QFIN</t>
+  </si>
+  <si>
+    <t>TLRY</t>
+  </si>
+  <si>
+    <t>TRNX</t>
+  </si>
+  <si>
+    <t>OGI</t>
+  </si>
+  <si>
+    <t>WMGI</t>
+  </si>
+  <si>
+    <t>DISCK</t>
+  </si>
+  <si>
+    <t>DVAX</t>
+  </si>
+  <si>
+    <t>FISV</t>
+  </si>
+  <si>
+    <t>FOLD</t>
+  </si>
+  <si>
+    <t>NYMT</t>
+  </si>
+  <si>
+    <t>EXPE</t>
+  </si>
+  <si>
+    <t>EXEL</t>
+  </si>
+  <si>
+    <t>NWL</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>MREO</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>NBEV</t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>CDEV</t>
+  </si>
+  <si>
+    <t>EXAS</t>
+  </si>
+  <si>
+    <t>PRVB</t>
+  </si>
+  <si>
+    <t>MIK</t>
+  </si>
+  <si>
+    <t>TEUM</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>DOYU</t>
+  </si>
+  <si>
+    <t>JBLU</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>CTSH</t>
+  </si>
+  <si>
+    <t>VRAY</t>
+  </si>
+  <si>
+    <t>MGI</t>
+  </si>
+  <si>
+    <t>XON</t>
+  </si>
+  <si>
+    <t>AMKR</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>FEYE</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>MNST</t>
+  </si>
+  <si>
+    <t>OSTK</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>INMD</t>
+  </si>
+  <si>
+    <t>DLTR</t>
+  </si>
+  <si>
+    <t>APPS</t>
+  </si>
+  <si>
+    <t>SCYX</t>
+  </si>
+  <si>
+    <t>GOGO</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>ACHN</t>
+  </si>
+  <si>
+    <t>DFFN</t>
+  </si>
+  <si>
+    <t>VISL</t>
+  </si>
+  <si>
+    <t>ALNA</t>
+  </si>
+  <si>
+    <t>CYCN</t>
+  </si>
+  <si>
+    <t>RTTR</t>
+  </si>
+  <si>
+    <t>DISCA</t>
+  </si>
+  <si>
+    <t>ABEO</t>
+  </si>
+  <si>
+    <t>AMTD</t>
+  </si>
+  <si>
+    <t>ADMP</t>
+  </si>
+  <si>
+    <t>TTNP</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>NBRV</t>
+  </si>
+  <si>
+    <t>URBN</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+  <si>
+    <t>FANG</t>
+  </si>
+  <si>
+    <t>OTLK</t>
+  </si>
+  <si>
+    <t>XLNX</t>
+  </si>
+  <si>
+    <t>LJPC</t>
+  </si>
+  <si>
+    <t>ARWR</t>
+  </si>
+  <si>
+    <t>ANGI</t>
+  </si>
+  <si>
+    <t>BNGO</t>
+  </si>
+  <si>
+    <t>GERN</t>
+  </si>
+  <si>
+    <t>ARCC</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1433,4 +2031,1029 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/selected_sec_list.xlsx
+++ b/selected_sec_list.xlsx
@@ -2035,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A204" activeCellId="1" sqref="B133 A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2702,352 +2702,347 @@
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1" t="b">
-        <v>1</v>
+      <c r="A132" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" s="1" t="s">
         <v>251</v>
       </c>
     </row>
